--- a/mbs-perturbation/chatty/elm/nearmiss/chatty_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/chatty/elm/nearmiss/chatty_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.21875</v>
+        <v>0.74</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.4576576576576577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.5144230769230769</v>
       </c>
     </row>
   </sheetData>
